--- a/modelTEST.xlsx
+++ b/modelTEST.xlsx
@@ -617,44 +617,44 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>158</v>
+        <v>29</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alex Carey</t>
+          <t>Gulbadin Naib</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2023_test_024</t>
+          <t>2023_test_025</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="E2" t="n">
-        <v>174</v>
+        <v>52</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>65.5</v>
+        <v>80.8</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66.09999999999999</v>
+        <v>63.5</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -687,10 +687,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -702,16 +702,16 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="AE2" t="n">
-        <v>109</v>
+        <v>1</v>
       </c>
       <c r="AF2" t="n">
         <v>0</v>
@@ -734,113 +734,113 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>277</v>
+        <v>35</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Travis Head</t>
+          <t>Hashmatullah Shahidi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2023_test_024</t>
+          <t>2023_test_025</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="E3" t="n">
-        <v>201</v>
+        <v>30</v>
       </c>
       <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="M3" t="n">
+        <v>6</v>
+      </c>
+      <c r="N3" t="n">
+        <v>28</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
         <v>2</v>
       </c>
-      <c r="G3" t="n">
-        <v>90</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>25</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3</v>
-      </c>
-      <c r="L3" t="n">
-        <v>57.2</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>52.8</v>
       </c>
       <c r="W3" t="n">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="X3" t="n">
-        <v>120</v>
+        <v>600</v>
       </c>
       <c r="Y3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z3" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="AC3" t="n">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="AD3" t="n">
-        <v>97</v>
+        <v>600</v>
       </c>
       <c r="AE3" t="n">
-        <v>142</v>
+        <v>600</v>
       </c>
       <c r="AF3" t="n">
         <v>2</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI3" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="AJ3" t="n">
         <v>0</v>
@@ -851,29 +851,29 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>376</v>
+        <v>41</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Marnus Labuschagne</t>
+          <t>Hazratullah Zazai</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2023_test_024</t>
+          <t>2023_test_025</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="E4" t="n">
-        <v>188</v>
+        <v>30</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>35.6</v>
+        <v>73.3</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -882,13 +882,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>81.40000000000001</v>
+        <v>66.7</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -921,43 +921,43 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="X4" t="n">
-        <v>109</v>
+        <v>600</v>
       </c>
       <c r="Y4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AC4" t="n">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="AD4" t="n">
-        <v>74</v>
+        <v>600</v>
       </c>
       <c r="AE4" t="n">
-        <v>144</v>
+        <v>600</v>
       </c>
       <c r="AF4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
         <v>0</v>
@@ -968,44 +968,44 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>550</v>
+        <v>46</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Steven Smith</t>
+          <t>Ibrahim Zadran</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2023_test_024</t>
+          <t>2023_test_025</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>155</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>315</v>
+        <v>18</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>49.2</v>
+        <v>33.3</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>76.2</v>
+        <v>83.3</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -1038,76 +1038,76 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="X5" t="n">
-        <v>165</v>
+        <v>230</v>
       </c>
       <c r="Y5" t="n">
         <v>1</v>
       </c>
       <c r="Z5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AA5" t="n">
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="AC5" t="n">
-        <v>94</v>
+        <v>183</v>
       </c>
       <c r="AD5" t="n">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="AE5" t="n">
-        <v>190</v>
+        <v>309</v>
       </c>
       <c r="AF5" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AG5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH5" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AI5" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AJ5" t="n">
         <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>692</v>
+        <v>49</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>David Warner</t>
+          <t>Ihsanullah</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2023_test_024</t>
+          <t>2019_test_035</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="F6" t="n">
         <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>64.7</v>
+        <v>49</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>77.90000000000001</v>
+        <v>74.5</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -1155,31 +1155,31 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="X6" t="n">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="AC6" t="n">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="AD6" t="n">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="AE6" t="n">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="AF6" t="n">
         <v>0</v>
@@ -1191,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
         <v>0</v>
@@ -1202,29 +1202,29 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>236</v>
+        <v>53</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cameron Green</t>
+          <t>Mohammad Nabi</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2023_test_024</t>
+          <t>2019_test_025</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E7" t="n">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="F7" t="n">
         <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>30.4</v>
+        <v>50</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1233,115 +1233,115 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>85.3</v>
+        <v>81.2</v>
       </c>
       <c r="M7" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="N7" t="n">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P7" t="n">
-        <v>3.35</v>
+        <v>2.16</v>
       </c>
       <c r="Q7" t="n">
-        <v>28.5</v>
+        <v>23.8</v>
       </c>
       <c r="R7" t="n">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
-        <v>73.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="W7" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="X7" t="n">
-        <v>95</v>
+        <v>4</v>
       </c>
       <c r="Y7" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="Z7" t="n">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="AA7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB7" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="AC7" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="AD7" t="n">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="AF7" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="AG7" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AH7" t="n">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="AI7" t="n">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>723</v>
+        <v>766</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mitchell Marsh</t>
+          <t>Khaled Ahmed</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2023_test_023</t>
+          <t>2023_test_015</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E8" t="n">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>59.5</v>
+        <v>36.4</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1350,349 +1350,349 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>75.7</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="M8" t="n">
         <v>16</v>
       </c>
       <c r="N8" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>4.88</v>
+        <v>4.19</v>
       </c>
       <c r="Q8" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>76</v>
+      </c>
+      <c r="W8" t="n">
         <v>2</v>
       </c>
-      <c r="V8" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="W8" t="n">
-        <v>42</v>
-      </c>
       <c r="X8" t="n">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="Z8" t="n">
-        <v>53</v>
+        <v>202</v>
       </c>
       <c r="AA8" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AB8" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="AC8" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="AD8" t="n">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="AF8" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AG8" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AH8" t="n">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="AI8" t="n">
-        <v>63</v>
+        <v>222</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AK8" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>212</v>
+        <v>777</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pat Cummins</t>
+          <t>Litton Das (Captain)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2023_test_024</t>
+          <t>2023_test_015</t>
         </is>
       </c>
       <c r="D9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>11</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>36.4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>6</v>
+      </c>
+      <c r="X9" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE9" t="n">
         <v>14</v>
       </c>
-      <c r="E9" t="n">
-        <v>39</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>79.5</v>
-      </c>
-      <c r="M9" t="n">
-        <v>33</v>
-      </c>
-      <c r="N9" t="n">
-        <v>138</v>
-      </c>
-      <c r="O9" t="n">
-        <v>4</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="R9" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>17</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1</v>
-      </c>
-      <c r="V9" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="W9" t="n">
-        <v>20</v>
-      </c>
-      <c r="X9" t="n">
-        <v>47</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>96</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>25</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>59</v>
-      </c>
       <c r="AF9" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>125</v>
+        <v>786</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Josh Hazlewood</t>
+          <t>Mahmudul Hasan Joy</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2023_test_023</t>
+          <t>2023_test_025</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>10</v>
+        <v>93</v>
       </c>
       <c r="E10" t="n">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>66.7</v>
+        <v>62</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>80</v>
+        <v>71.3</v>
       </c>
       <c r="M10" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>37</v>
+      </c>
+      <c r="X10" t="n">
+        <v>87</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
         <v>3</v>
       </c>
-      <c r="P10" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>40.3</v>
-      </c>
-      <c r="R10" t="n">
-        <v>56</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>15</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1</v>
-      </c>
-      <c r="V10" t="n">
-        <v>63.7</v>
-      </c>
-      <c r="W10" t="n">
-        <v>7</v>
-      </c>
-      <c r="X10" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>125</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB10" t="n">
+      <c r="AC10" t="n">
+        <v>71</v>
+      </c>
+      <c r="AD10" t="n">
         <v>5</v>
       </c>
-      <c r="AC10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>11</v>
-      </c>
       <c r="AE10" t="n">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="AF10" t="n">
-        <v>32</v>
+        <v>-0</v>
       </c>
       <c r="AG10" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>618</v>
+        <v>913</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mitchell Starc</t>
+          <t>Mushfiqur Rahim</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2023_test_024</t>
+          <t>2023_test_025</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E11" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F11" t="n">
         <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>59.7</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1701,199 +1701,199 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>71.40000000000001</v>
+        <v>58.2</v>
       </c>
       <c r="M11" t="n">
-        <v>27.4</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>5.35</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>41.5</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>63.3</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="X11" t="n">
-        <v>27</v>
+        <v>135</v>
       </c>
       <c r="Y11" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AC11" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="AD11" t="n">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="AE11" t="n">
-        <v>33</v>
+        <v>169</v>
       </c>
       <c r="AF11" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>1891</v>
+        <v>936</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Shreyas Iyer</t>
+          <t>Najmul Hossain Shanto</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2023_test_008</t>
+          <t>2023_test_025</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>326</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>82.8</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>59.2</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH12" t="n">
         <v>2</v>
       </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="W12" t="n">
-        <v>218</v>
-      </c>
-      <c r="X12" t="n">
-        <v>275</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>179</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>256</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>229</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>320</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>0</v>
-      </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AJ12" t="n">
         <v>0</v>
@@ -1904,146 +1904,146 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>2023</v>
+        <v>944</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Virat Kohli</t>
+          <t>Nayeem Hasan</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2023_test_027</t>
+          <t>2022_test_019</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="E13" t="n">
-        <v>206</v>
+        <v>53</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>58.7</v>
+        <v>17</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>65.5</v>
+        <v>86.8</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>3.47</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>30.7</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="W13" t="n">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="X13" t="n">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="AC13" t="n">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="AD13" t="n">
-        <v>126</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
-        <v>173</v>
+        <v>52</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="AJ13" t="n">
         <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>1805</v>
+        <v>953</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>KL Rahul</t>
+          <t>Nurul Hasan</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2023_test_006</t>
+          <t>2022_test_040</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E14" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F14" t="n">
         <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>40.9</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
         <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>72.7</v>
+        <v>61.9</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -2091,10 +2091,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="X14" t="n">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -2106,16 +2106,16 @@
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="AC14" t="n">
+        <v>56</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="n">
         <v>58</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>73</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>130</v>
       </c>
       <c r="AF14" t="n">
         <v>0</v>
@@ -2138,29 +2138,29 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>2070</v>
+        <v>966</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Shubman Gill</t>
+          <t>Shadman Islam</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2023_test_027</t>
+          <t>2022_test_017</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="E15" t="n">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>79.59999999999999</v>
+        <v>25.7</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -2169,13 +2169,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>44.9</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -2208,10 +2208,10 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="X15" t="n">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -2226,22 +2226,22 @@
         <v>1</v>
       </c>
       <c r="AC15" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="AD15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE15" t="n">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="AF15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
         <v>0</v>
       </c>
       <c r="AH15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
@@ -2255,263 +2255,263 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>1876</v>
+        <v>973</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Ravichandran Ashwin</t>
+          <t>Shoriful Islam</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2023_test_027</t>
+          <t>2023_test_025</t>
         </is>
       </c>
       <c r="D16" t="n">
+        <v>6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>11</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="M16" t="n">
+        <v>18</v>
+      </c>
+      <c r="N16" t="n">
         <v>56</v>
       </c>
-      <c r="E16" t="n">
-        <v>78</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" t="n">
-        <v>71.8</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>8</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>69.2</v>
-      </c>
-      <c r="M16" t="n">
+      <c r="O16" t="n">
+        <v>5</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>5</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="W16" t="n">
+        <v>4</v>
+      </c>
+      <c r="X16" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z16" t="n">
         <v>44</v>
       </c>
-      <c r="N16" t="n">
-        <v>94</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="AA16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>58</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>3</v>
       </c>
-      <c r="P16" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="R16" t="n">
-        <v>88</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>9</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1</v>
-      </c>
-      <c r="V16" t="n">
-        <v>81.40000000000001</v>
-      </c>
-      <c r="W16" t="n">
-        <v>26</v>
-      </c>
-      <c r="X16" t="n">
-        <v>43</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>39</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>93</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>33</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>31</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>35</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>43</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>80</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>105</v>
-      </c>
-      <c r="AJ16" t="n">
+      <c r="AK16" t="n">
         <v>4</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>1946</v>
+        <v>1010</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ravindra Jadeja</t>
+          <t>Taijul Islam</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2023_test_027</t>
+          <t>2023_test_025</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>152</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>40.1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>73.7</v>
+        <v>100</v>
       </c>
       <c r="M17" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="N17" t="n">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="O17" t="n">
         <v>2</v>
       </c>
       <c r="P17" t="n">
-        <v>1.57</v>
+        <v>2.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>23.5</v>
+        <v>13</v>
       </c>
       <c r="R17" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="W17" t="n">
+        <v>15</v>
+      </c>
+      <c r="X17" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>108</v>
+      </c>
+      <c r="AA17" t="n">
         <v>5</v>
       </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>90.59999999999999</v>
-      </c>
-      <c r="W17" t="n">
-        <v>61</v>
-      </c>
-      <c r="X17" t="n">
+      <c r="AB17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>33</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>47</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AH17" t="n">
         <v>91</v>
       </c>
-      <c r="Y17" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>52</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>71</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>77</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>105</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>33</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>43</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>68</v>
-      </c>
       <c r="AI17" t="n">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="AJ17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK17" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>2115</v>
+        <v>1013</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Axar Patel</t>
+          <t>Zakir Hasan</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2023_test_008</t>
+          <t>2023_test_025</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E18" t="n">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>69.90000000000001</v>
+        <v>74.2</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -2520,82 +2520,82 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>68.09999999999999</v>
+        <v>53.6</v>
       </c>
       <c r="M18" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>41.5</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="X18" t="n">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="Y18" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>-174</v>
+        <v>0</v>
       </c>
       <c r="AA18" t="n">
         <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="AC18" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="AD18" t="n">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="AE18" t="n">
-        <v>124</v>
+        <v>169</v>
       </c>
       <c r="AF18" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH18" t="n">
-        <v>-192</v>
+        <v>0</v>
       </c>
       <c r="AI18" t="n">
-        <v>-155</v>
+        <v>0</v>
       </c>
       <c r="AJ18" t="n">
         <v>0</v>
@@ -2606,230 +2606,230 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>2100</v>
+        <v>1016</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Jasprit Bumrah</t>
+          <t>Shahadat Hossain</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2022_test_028</t>
+          <t>2023_test_025</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="E19" t="n">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>105.6</v>
+        <v>74.2</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>69.40000000000001</v>
+        <v>53.6</v>
       </c>
       <c r="M19" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>3.94</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>28.4</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>43.2</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>70.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="X19" t="n">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="Y19" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="AC19" t="n">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="AD19" t="n">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="AE19" t="n">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="AF19" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="AH19" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AI19" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK19" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>2031</v>
+        <v>1019</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Kuldeep Yadav</t>
+          <t>Hasan Mahmud</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2022_test_039</t>
+          <t>2023_test_025</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="E20" t="n">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>35.1</v>
+        <v>74.2</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>81.59999999999999</v>
+        <v>53.6</v>
       </c>
       <c r="M20" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>113</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>3.14</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>14.1</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>77.8</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>155</v>
+        <v>66</v>
       </c>
       <c r="X20" t="n">
-        <v>462</v>
+        <v>169</v>
       </c>
       <c r="Y20" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AA20" t="n">
         <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>153</v>
+        <v>66</v>
       </c>
       <c r="AC20" t="n">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="AD20" t="n">
-        <v>455</v>
+        <v>169</v>
       </c>
       <c r="AE20" t="n">
-        <v>469</v>
+        <v>169</v>
       </c>
       <c r="AF20" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AH20" t="n">
-        <v>-31</v>
+        <v>0</v>
       </c>
       <c r="AI20" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AJ20" t="n">
         <v>0</v>
@@ -2840,119 +2840,119 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>2052</v>
+        <v>1022</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Mohammed Siraj</t>
+          <t>Hasan Murad</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2023_test_027</t>
+          <t>2023_test_025</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E21" t="n">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>74.2</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>100</v>
+        <v>53.6</v>
       </c>
       <c r="M21" t="n">
-        <v>31.4</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>16.8</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>78.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="X21" t="n">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="Y21" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="AC21" t="n">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="AD21" t="n">
-        <v>3</v>
+        <v>169</v>
       </c>
       <c r="AE21" t="n">
-        <v>9</v>
+        <v>169</v>
       </c>
       <c r="AF21" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AH21" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="AI21" t="n">
-        <v>103</v>
+        <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
